--- a/Data/EC/NIT-9011734461.xlsx
+++ b/Data/EC/NIT-9011734461.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6F3E77F-2ADE-4D2D-95F5-EB10D0899A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9A82383-2E1A-4F25-AA46-C4F1C6890C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD4B06EC-4C65-4381-B58A-34048784CD60}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A7159550-C6C6-42C7-BFC1-E6E6939934F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,52 +71,55 @@
     <t>ELSY FUENTES NIETO</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
     <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -160,7 +163,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD18C72E-94FC-3A5A-3A12-12E24A8CEB4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A956E2-ACC8-1DB8-D93C-48637C666B39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,32 +884,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB54325B-76A1-49FB-9CC1-51217EFBE518}">
-  <dimension ref="B2:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45404EC1-8863-457C-921A-192566EE592D}">
+  <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -915,7 +918,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -926,7 +929,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -937,7 +940,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -948,10 +951,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -964,8 +967,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -980,15 +983,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>398667</v>
+        <v>424667</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -996,27 +999,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1036,16 +1039,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>8667</v>
+        <v>26000</v>
       </c>
       <c r="G16" s="18">
         <v>650000</v>
@@ -1068,7 +1071,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1091,7 +1094,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1117,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1137,7 +1140,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1160,7 +1163,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1186,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1209,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1232,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1252,7 +1255,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1275,7 +1278,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1298,7 +1301,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1324,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1347,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1370,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1390,43 +1393,55 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="22" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="24">
-        <v>26000</v>
-      </c>
-      <c r="G31" s="24">
-        <v>650000</v>
-      </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F31" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="24">
+        <v>8667</v>
+      </c>
+      <c r="G32" s="24">
+        <v>650000</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C37" s="32"/>
       <c r="H37" s="1" t="s">
@@ -1435,12 +1450,23 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="H38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H36:J36"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011734461.xlsx
+++ b/Data/EC/NIT-9011734461.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9A82383-2E1A-4F25-AA46-C4F1C6890C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36411097-CCC2-4494-AECB-BDC5B7DED924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A7159550-C6C6-42C7-BFC1-E6E6939934F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1291B62E-6DA4-400E-BB12-F82FB1E1372E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,55 +71,58 @@
     <t>ELSY FUENTES NIETO</t>
   </si>
   <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -218,7 +221,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -231,9 +236,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +436,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +480,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +536,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A956E2-ACC8-1DB8-D93C-48637C666B39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41380DFB-ACCD-DCB1-7030-128A5D0C8919}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,8 +887,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45404EC1-8863-457C-921A-192566EE592D}">
-  <dimension ref="B2:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2A97E8-D372-4308-89E6-F4CBC67BAAC1}">
+  <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -909,7 +912,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -954,7 +957,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -986,12 +989,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>424667</v>
+        <v>450667</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1002,17 +1005,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1039,13 +1042,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1062,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26000</v>
+        <v>8667</v>
       </c>
       <c r="G16" s="18">
         <v>650000</v>
@@ -1417,42 +1420,54 @@
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="22" t="s">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="24">
-        <v>8667</v>
-      </c>
-      <c r="G32" s="24">
-        <v>650000</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="F32" s="18">
+        <v>26000</v>
+      </c>
+      <c r="G32" s="18">
+        <v>650000</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="24">
+        <v>26000</v>
+      </c>
+      <c r="G33" s="24">
+        <v>650000</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C38" s="32"/>
       <c r="H38" s="1" t="s">
@@ -1461,12 +1476,23 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="H39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011734461.xlsx
+++ b/Data/EC/NIT-9011734461.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36411097-CCC2-4494-AECB-BDC5B7DED924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D87BF56-46D0-4E90-87D1-AA63F234804C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1291B62E-6DA4-400E-BB12-F82FB1E1372E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BA474624-0C32-4C2E-B3BB-D0725A2A75D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -221,9 +224,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -236,7 +237,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -430,29 +433,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,19 +474,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41380DFB-ACCD-DCB1-7030-128A5D0C8919}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADF9C9A-68D7-93D1-A59F-E46FCD39AA59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,8 +896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2A97E8-D372-4308-89E6-F4CBC67BAAC1}">
-  <dimension ref="B2:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDCA1CC-8821-47BE-BAA6-611B03A129D0}">
+  <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -910,57 +919,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -976,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9011734461</v>
       </c>
@@ -989,12 +998,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>450667</v>
+        <v>476667</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1005,17 +1014,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1042,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1061,18 +1070,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>8667</v>
       </c>
-      <c r="G16" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1084,18 +1093,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G17" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G17" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1107,18 +1116,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G18" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G18" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1130,18 +1139,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G19" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G19" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1153,18 +1162,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G20" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1176,18 +1185,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G21" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G21" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1199,18 +1208,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1222,18 +1231,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G23" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G23" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1245,18 +1254,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1268,18 +1277,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1291,18 +1300,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1314,18 +1323,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1337,18 +1346,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1360,18 +1369,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1383,18 +1392,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1406,18 +1415,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1429,70 +1438,93 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
-        <v>26000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>650000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="22" t="s">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="24">
-        <v>26000</v>
-      </c>
-      <c r="G33" s="24">
-        <v>650000</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="H38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="F33" s="19">
+        <v>26000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>650000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="26">
+        <v>26000</v>
+      </c>
+      <c r="G34" s="26">
+        <v>650000</v>
+      </c>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="32"/>
+      <c r="B39" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="34"/>
       <c r="H39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="H40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H38:J38"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
